--- a/环形右键菜单/环形右键菜单_设计思路.xlsx
+++ b/环形右键菜单/环形右键菜单_设计思路.xlsx
@@ -293,7 +293,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>510052</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4066819" cy="305048"/>
@@ -310,6 +310,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -409,7 +414,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>49414</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2892594" cy="305048"/>
@@ -463,7 +468,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>555203</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1610738" cy="305048"/>
@@ -517,7 +522,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>435213</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3147015" cy="305048"/>
@@ -571,7 +576,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>298922</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1050994" cy="305048"/>
@@ -625,7 +630,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>394829</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1194787" cy="305048"/>
@@ -696,6 +701,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -841,7 +851,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2607737" cy="305048"/>
@@ -885,6 +895,183 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>决定第一层环的半径，需要遍历所有层</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1482373" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9553575" y="4048125"/>
+          <a:ext cx="1482373" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>第一层环是否要填满</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>403436</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2180452" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11376236" y="4038600"/>
+          <a:ext cx="2180452" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>第一层环是否均分，还是紧凑？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1482374" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601199" y="4619625"/>
+          <a:ext cx="1482374" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>自定义右键菜单按钮</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>

--- a/环形右键菜单/环形右键菜单_设计思路.xlsx
+++ b/环形右键菜单/环形右键菜单_设计思路.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1072,6 +1072,1162 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>自定义右键菜单按钮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663103</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="777896" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2034703" y="552450"/>
+          <a:ext cx="777896" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>菜单数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>585324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120472</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="559746" cy="292704"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1956924" y="1320622"/>
+          <a:ext cx="559746" cy="292704"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>image</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>651279</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438288" cy="292704"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2708679" y="1304925"/>
+          <a:ext cx="438288" cy="292704"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>text</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>631058</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="662077" cy="292704"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374258" y="1304925"/>
+          <a:ext cx="662077" cy="292704"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>execute</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>615013</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117653</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1482373" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1986613" y="2003603"/>
+          <a:ext cx="1482373" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>按数据层级递归循环</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>434034</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338581" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1805634" y="2705100"/>
+          <a:ext cx="1338581" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确定根层内环半径</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>659479</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1753166" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3402679" y="2724150"/>
+          <a:ext cx="1753166" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>初始化菜单按钮组成部分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338581" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="3314700"/>
+          <a:ext cx="1338581" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确定根层外环半径</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676277</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338580" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419477" y="3838575"/>
+          <a:ext cx="1338580" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确定根层按钮宽高</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>578770</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338580" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5379370" y="2733675"/>
+          <a:ext cx="1338580" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确定按钮父子关系</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338581" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="2714625"/>
+          <a:ext cx="1338581" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确定按钮所属层级</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347205</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1482373" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1718805" y="3829050"/>
+          <a:ext cx="1482373" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据根层总最大弧度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338581" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="4400550"/>
+          <a:ext cx="1338581" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确定根层按钮外观</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>328156</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1482373" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1699756" y="4962525"/>
+          <a:ext cx="1482373" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>找到父元素中线角度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>467643</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1194788" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1839243" y="4371975"/>
+          <a:ext cx="1194788" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据初始角位置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>679215</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1895594" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3422415" y="4991100"/>
+          <a:ext cx="1895594" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确定子元素集合的中间弧度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>631492</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2099462" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5432092" y="4991100"/>
+          <a:ext cx="2099462" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OR </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确定子元素集合的起始弧度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>275075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2322881" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="圆角矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1646675" y="5553075"/>
+          <a:ext cx="2322881" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>递归循环遍历所有元素，确定外观</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>283519</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1050994" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="圆角矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1655119" y="6115050"/>
+          <a:ext cx="1050994" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>制作动画效果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>386223</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1050994" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="圆角矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="386223" y="4972050"/>
+          <a:ext cx="1050994" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据层级间距</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>522017</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1753167" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="圆角矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1893617" y="1933575"/>
+          <a:ext cx="1753167" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>按钮自带收起和展开功能</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1370,7 +2526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -1385,12 +2541,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/环形右键菜单/环形右键菜单_设计思路.xlsx
+++ b/环形右键菜单/环形右键菜单_设计思路.xlsx
@@ -1087,7 +1087,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>663103</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="777896" cy="305048"/>
@@ -1141,7 +1141,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>585324</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>120472</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="559746" cy="292704"/>
@@ -1196,7 +1196,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>651279</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="438288" cy="292704"/>
@@ -1251,7 +1251,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>631058</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="662077" cy="292704"/>
@@ -1306,7 +1306,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>615013</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>117653</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1482373" cy="305048"/>
@@ -1360,7 +1360,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>434034</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1338581" cy="305048"/>
@@ -1414,7 +1414,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>659479</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1753166" cy="305048"/>
@@ -1468,7 +1468,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1338581" cy="305048"/>
@@ -1522,7 +1522,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>676277</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1338580" cy="305048"/>
@@ -1576,7 +1576,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>578770</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1338580" cy="305048"/>
@@ -1630,7 +1630,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1338581" cy="305048"/>
@@ -1689,7 +1689,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>347205</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1482373" cy="305048"/>
@@ -1743,7 +1743,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1338581" cy="305048"/>
@@ -1797,7 +1797,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>328156</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1482373" cy="305048"/>
@@ -1851,7 +1851,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>467643</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1194788" cy="305048"/>
@@ -1905,7 +1905,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>679215</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1895594" cy="305048"/>
@@ -1959,7 +1959,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>631492</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2099462" cy="305048"/>
@@ -2021,11 +2021,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>275075</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:colOff>132648</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2322881" cy="305048"/>
+    <xdr:ext cx="2607737" cy="305048"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="圆角矩形 20"/>
@@ -2033,39 +2033,39 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1646675" y="5553075"/>
-          <a:ext cx="2322881" cy="305048"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>递归循环遍历所有元素，确定外观</a:t>
+          <a:off x="1504248" y="7096125"/>
+          <a:ext cx="2607737" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>递归循环遍历所有元素，确定图形外观</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2076,7 +2076,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>283519</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1050994" cy="305048"/>
@@ -2130,7 +2130,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>386223</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1050994" cy="305048"/>
@@ -2184,7 +2184,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>522017</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1753167" cy="305048"/>
@@ -2228,6 +2228,238 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>按钮自带收起和展开功能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>491547</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1227272" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="圆角矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1863147" y="1981200"/>
+          <a:ext cx="1227272" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>初始化按钮外观</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>513826</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1266423" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="圆角矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257026" y="1981200"/>
+          <a:ext cx="1266423" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>主体</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>父元素标识</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>630831</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="842966" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="圆角矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4745631" y="1952625"/>
+          <a:ext cx="842966" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>图片</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>文本</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314171</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338581" cy="305048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="圆角矩形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800571" y="1962150"/>
+          <a:ext cx="1338581" cy="305048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>执行方法触发设置</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2526,7 +2758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -2541,7 +2775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
